--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H2">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I2">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J2">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>21.269004133929</v>
+        <v>30.5780168832075</v>
       </c>
       <c r="R2">
-        <v>85.07601653571601</v>
+        <v>122.31206753283</v>
       </c>
       <c r="S2">
-        <v>0.0008422053659902723</v>
+        <v>0.0004335841816151614</v>
       </c>
       <c r="T2">
-        <v>0.0004223266606967297</v>
+        <v>0.0002230752098090991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H3">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I3">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J3">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>5.415227852291001</v>
+        <v>8.022494297601</v>
       </c>
       <c r="R3">
-        <v>32.49136711374601</v>
+        <v>48.13496578560601</v>
       </c>
       <c r="S3">
-        <v>0.0002144310061035735</v>
+        <v>0.0001137557951460179</v>
       </c>
       <c r="T3">
-        <v>0.00016129070369508</v>
+        <v>8.778951912406955E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H4">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I4">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J4">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>16.2592642347405</v>
+        <v>16.468306103466</v>
       </c>
       <c r="R4">
-        <v>97.55558540844302</v>
+        <v>98.80983662079601</v>
       </c>
       <c r="S4">
-        <v>0.0006438307830176043</v>
+        <v>0.0002335140650792354</v>
       </c>
       <c r="T4">
-        <v>0.0004842766069161915</v>
+        <v>0.0001802113681830334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H5">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I5">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J5">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>3.81963365733825</v>
+        <v>8.156721885606</v>
       </c>
       <c r="R5">
-        <v>15.278534629353</v>
+        <v>32.626887542424</v>
       </c>
       <c r="S5">
-        <v>0.0001512490167414842</v>
+        <v>0.0001156590892385555</v>
       </c>
       <c r="T5">
-        <v>7.584431868228274E-05</v>
+        <v>5.950557398590739E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H6">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I6">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J6">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>16.447476619279</v>
+        <v>5.612285870824501</v>
       </c>
       <c r="R6">
-        <v>98.68485971567401</v>
+        <v>33.673715224947</v>
       </c>
       <c r="S6">
-        <v>0.0006512835757861798</v>
+        <v>7.957999322147415E-05</v>
       </c>
       <c r="T6">
-        <v>0.0004898824482167566</v>
+        <v>6.141479937652643E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H7">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I7">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J7">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>14.0799752575935</v>
+        <v>27.960166452456</v>
       </c>
       <c r="R7">
-        <v>84.479851545561</v>
+        <v>167.760998714736</v>
       </c>
       <c r="S7">
-        <v>0.0005575357755485544</v>
+        <v>0.00039646409822507</v>
       </c>
       <c r="T7">
-        <v>0.0004193672324140155</v>
+        <v>0.000305965884977203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.880765</v>
       </c>
       <c r="I8">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J8">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>139.2717119802633</v>
+        <v>135.1550857258583</v>
       </c>
       <c r="R8">
-        <v>835.63027188158</v>
+        <v>810.93051435515</v>
       </c>
       <c r="S8">
-        <v>0.005514850738747852</v>
+        <v>0.001916445643267179</v>
       </c>
       <c r="T8">
-        <v>0.004148160159246435</v>
+        <v>0.001478991388824496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.880765</v>
       </c>
       <c r="I9">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J9">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>35.45949067491445</v>
@@ -1013,10 +1013,10 @@
         <v>319.1354160742301</v>
       </c>
       <c r="S9">
-        <v>0.001404117143127293</v>
+        <v>0.0005028015486909003</v>
       </c>
       <c r="T9">
-        <v>0.001584223146180203</v>
+        <v>0.000582045593164096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.880765</v>
       </c>
       <c r="I10">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J10">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>106.4673997547183</v>
+        <v>72.79004821257556</v>
       </c>
       <c r="R10">
-        <v>958.2065977924651</v>
+        <v>655.1104339131801</v>
       </c>
       <c r="S10">
-        <v>0.004215872770150759</v>
+        <v>0.001032134085232644</v>
       </c>
       <c r="T10">
-        <v>0.004756642461431864</v>
+        <v>0.001194803590856538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.880765</v>
       </c>
       <c r="I11">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J11">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>25.0113693732525</v>
+        <v>36.05277771615334</v>
       </c>
       <c r="R11">
-        <v>150.068216239515</v>
+        <v>216.31666629692</v>
       </c>
       <c r="S11">
-        <v>0.0009903947248435063</v>
+        <v>0.0005112141242094819</v>
       </c>
       <c r="T11">
-        <v>0.0007449550557476125</v>
+        <v>0.0003945226885028179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.880765</v>
       </c>
       <c r="I12">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J12">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>107.6998345619856</v>
+        <v>24.80634963629278</v>
       </c>
       <c r="R12">
-        <v>969.2985110578701</v>
+        <v>223.257146726635</v>
       </c>
       <c r="S12">
-        <v>0.004264674453641799</v>
+        <v>0.0003517442235378655</v>
       </c>
       <c r="T12">
-        <v>0.004811703933288032</v>
+        <v>0.0004071808763600303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.880765</v>
       </c>
       <c r="I13">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J13">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>92.19718264272834</v>
+        <v>123.5841653245422</v>
       </c>
       <c r="R13">
-        <v>829.774643784555</v>
+        <v>1112.25748792088</v>
       </c>
       <c r="S13">
-        <v>0.003650803839330816</v>
+        <v>0.001752374569858427</v>
       </c>
       <c r="T13">
-        <v>0.004119092180264834</v>
+        <v>0.002028557586217683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H14">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I14">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J14">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>4279.152468972391</v>
+        <v>4937.442267747188</v>
       </c>
       <c r="R14">
-        <v>25674.91481383435</v>
+        <v>29624.65360648313</v>
       </c>
       <c r="S14">
-        <v>0.1694449419712121</v>
+        <v>0.07001097792280084</v>
       </c>
       <c r="T14">
-        <v>0.1274530881737692</v>
+        <v>0.05403003932554981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H15">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I15">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J15">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>1089.500264716835</v>
+        <v>1295.394746789119</v>
       </c>
       <c r="R15">
-        <v>9805.502382451512</v>
+        <v>11658.55272110207</v>
       </c>
       <c r="S15">
-        <v>0.04314179278984588</v>
+        <v>0.01836818500363858</v>
       </c>
       <c r="T15">
-        <v>0.04867558738949745</v>
+        <v>0.021263103034639</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H16">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I16">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J16">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>3271.233117246644</v>
+        <v>2659.14270843724</v>
       </c>
       <c r="R16">
-        <v>29441.0980552198</v>
+        <v>23932.28437593516</v>
       </c>
       <c r="S16">
-        <v>0.1295335723008895</v>
+        <v>0.03770559155093069</v>
       </c>
       <c r="T16">
-        <v>0.1461488341274901</v>
+        <v>0.04364818178664007</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H17">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I17">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J17">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>768.4795532713858</v>
+        <v>1317.068518801378</v>
       </c>
       <c r="R17">
-        <v>4610.877319628315</v>
+        <v>7902.411112808266</v>
       </c>
       <c r="S17">
-        <v>0.03043008498862936</v>
+        <v>0.01867551051583063</v>
       </c>
       <c r="T17">
-        <v>0.02288889984010258</v>
+        <v>0.01441257639205793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H18">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I18">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J18">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>3309.099934372525</v>
+        <v>906.2176132326911</v>
       </c>
       <c r="R18">
-        <v>29781.89940935273</v>
+        <v>8155.958519094219</v>
       </c>
       <c r="S18">
-        <v>0.1310330142294147</v>
+        <v>0.01284980722260382</v>
       </c>
       <c r="T18">
-        <v>0.1478406093623056</v>
+        <v>0.01487500125327295</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H19">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I19">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J19">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>2832.777712920188</v>
+        <v>4514.737112707167</v>
       </c>
       <c r="R19">
-        <v>25494.99941628169</v>
+        <v>40632.63401436451</v>
       </c>
       <c r="S19">
-        <v>0.1121717112590692</v>
+        <v>0.06401718606204783</v>
       </c>
       <c r="T19">
-        <v>0.1265599684421414</v>
+        <v>0.07410661548516281</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H20">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I20">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J20">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>106.999719895611</v>
+        <v>182.3257609644525</v>
       </c>
       <c r="R20">
-        <v>427.998879582444</v>
+        <v>729.3030438578099</v>
       </c>
       <c r="S20">
-        <v>0.004236951466466837</v>
+        <v>0.002585307155695484</v>
       </c>
       <c r="T20">
-        <v>0.002124633298035433</v>
+        <v>0.001330117565704037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H21">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I21">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J21">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>27.242829975369</v>
+        <v>47.835259664807</v>
       </c>
       <c r="R21">
-        <v>163.456979852214</v>
+        <v>287.011557988842</v>
       </c>
       <c r="S21">
-        <v>0.001078755612888114</v>
+        <v>0.0006782850566579478</v>
       </c>
       <c r="T21">
-        <v>0.0008114183442001843</v>
+        <v>0.0005234574544233932</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H22">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I22">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J22">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>81.79681135378951</v>
+        <v>98.194609989862</v>
       </c>
       <c r="R22">
-        <v>490.780868122737</v>
+        <v>589.167659939172</v>
       </c>
       <c r="S22">
-        <v>0.003238972215589562</v>
+        <v>0.001392360720255063</v>
       </c>
       <c r="T22">
-        <v>0.002436289962883994</v>
+        <v>0.001074535832847317</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H23">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I23">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J23">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>19.21574366460675</v>
+        <v>48.635610688842</v>
       </c>
       <c r="R23">
-        <v>76.86297465842701</v>
+        <v>194.542442755368</v>
       </c>
       <c r="S23">
-        <v>0.0007609008077631986</v>
+        <v>0.0006896337175304469</v>
       </c>
       <c r="T23">
-        <v>0.0003815562216066284</v>
+        <v>0.0003548104214882963</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H24">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I24">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J24">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>82.743666801261</v>
+        <v>33.46405020497151</v>
       </c>
       <c r="R24">
-        <v>496.462000807566</v>
+        <v>200.784301229829</v>
       </c>
       <c r="S24">
-        <v>0.003276465590157368</v>
+        <v>0.0004745069922967897</v>
       </c>
       <c r="T24">
-        <v>0.002464491727534689</v>
+        <v>0.0003661944485665349</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H25">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I25">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J25">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>70.83328392871651</v>
+        <v>166.716456616792</v>
       </c>
       <c r="R25">
-        <v>424.999703572299</v>
+        <v>1000.298739700752</v>
       </c>
       <c r="S25">
-        <v>0.002804840858548338</v>
+        <v>0.002363973395660866</v>
       </c>
       <c r="T25">
-        <v>0.002109745059953969</v>
+        <v>0.001824364968490364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H26">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I26">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J26">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>25.546404709166</v>
+        <v>13603.66769230892</v>
       </c>
       <c r="R26">
-        <v>153.278428254996</v>
+        <v>81622.00615385349</v>
       </c>
       <c r="S26">
-        <v>0.001011580936857163</v>
+        <v>0.1928946257653993</v>
       </c>
       <c r="T26">
-        <v>0.0007608908996650041</v>
+        <v>0.1488638571408602</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H27">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I27">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J27">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>6.504282073380667</v>
+        <v>3569.078626153189</v>
       </c>
       <c r="R27">
-        <v>58.53853866042601</v>
+        <v>32121.7076353787</v>
       </c>
       <c r="S27">
-        <v>0.0002575551365555919</v>
+        <v>0.05060812286000902</v>
       </c>
       <c r="T27">
-        <v>0.0002905917150475111</v>
+        <v>0.05858421670670659</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H28">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I28">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J28">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>19.529158102487</v>
+        <v>7326.484400294912</v>
       </c>
       <c r="R28">
-        <v>175.762422922383</v>
+        <v>65938.35960265421</v>
       </c>
       <c r="S28">
-        <v>0.0007733113240101956</v>
+        <v>0.1038866501693455</v>
       </c>
       <c r="T28">
-        <v>0.0008725039108714498</v>
+        <v>0.1202597069899238</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H29">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I29">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J29">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>4.587798593515499</v>
+        <v>3628.794320252467</v>
       </c>
       <c r="R29">
-        <v>27.526791561093</v>
+        <v>21772.7659215148</v>
       </c>
       <c r="S29">
-        <v>0.0001816666435913476</v>
+        <v>0.05145486777661071</v>
       </c>
       <c r="T29">
-        <v>0.0001366460071013183</v>
+        <v>0.03970960857776892</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H30">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I30">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J30">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>19.75522180139933</v>
+        <v>2496.815678810906</v>
       </c>
       <c r="R30">
-        <v>177.796996212594</v>
+        <v>22471.34110929815</v>
       </c>
       <c r="S30">
-        <v>0.0007822629448327171</v>
+        <v>0.03540385849337568</v>
       </c>
       <c r="T30">
-        <v>0.0008826037554408867</v>
+        <v>0.04098368406128875</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H31">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I31">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J31">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>16.911593225549</v>
+        <v>12439.02815848525</v>
       </c>
       <c r="R31">
-        <v>152.204339029941</v>
+        <v>111951.2534263672</v>
       </c>
       <c r="S31">
-        <v>0.0006696615634805938</v>
+        <v>0.1763804979500369</v>
       </c>
       <c r="T31">
-        <v>0.000755559003154342</v>
+        <v>0.204178948571655</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H32">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I32">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J32">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>2377.199431596796</v>
+        <v>3388.967476541338</v>
       </c>
       <c r="R32">
-        <v>14263.19658958078</v>
+        <v>20333.80485924803</v>
       </c>
       <c r="S32">
-        <v>0.09413182228527796</v>
+        <v>0.04805421801711168</v>
       </c>
       <c r="T32">
-        <v>0.07080406948778324</v>
+        <v>0.03708520243905226</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H33">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I33">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J33">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>605.2505557558175</v>
+        <v>889.1345818518051</v>
       </c>
       <c r="R33">
-        <v>5447.255001802357</v>
+        <v>8002.211236666247</v>
       </c>
       <c r="S33">
-        <v>0.02396657890591981</v>
+        <v>0.01260757659629871</v>
       </c>
       <c r="T33">
-        <v>0.02704077022587158</v>
+        <v>0.01459459386602972</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H34">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I34">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J34">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>1817.269555905022</v>
+        <v>1825.185524343893</v>
       </c>
       <c r="R34">
-        <v>16355.4260031452</v>
+        <v>16426.66971909504</v>
       </c>
       <c r="S34">
-        <v>0.07195984173948433</v>
+        <v>0.02588040862463788</v>
       </c>
       <c r="T34">
-        <v>0.0811901253660717</v>
+        <v>0.02995929075492357</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H35">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I35">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J35">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>426.913780351743</v>
+        <v>904.0110511774974</v>
       </c>
       <c r="R35">
-        <v>2561.482682110458</v>
+        <v>5424.066307064984</v>
       </c>
       <c r="S35">
-        <v>0.01690483834425826</v>
+        <v>0.01281851904565832</v>
       </c>
       <c r="T35">
-        <v>0.01271548047990783</v>
+        <v>0.00989252126853481</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H36">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I36">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J36">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>1838.305725286863</v>
+        <v>622.0107195938475</v>
       </c>
       <c r="R36">
-        <v>16544.75152758176</v>
+        <v>5598.096476344627</v>
       </c>
       <c r="S36">
-        <v>0.07279282736597185</v>
+        <v>0.008819865913510685</v>
       </c>
       <c r="T36">
-        <v>0.08212995799782621</v>
+        <v>0.01020992099293035</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H37">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I37">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J37">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>1573.694234505994</v>
+        <v>3098.83061115362</v>
       </c>
       <c r="R37">
-        <v>14163.24811055395</v>
+        <v>27889.47550038258</v>
       </c>
       <c r="S37">
-        <v>0.06231479952625631</v>
+        <v>0.04394019205473454</v>
       </c>
       <c r="T37">
-        <v>0.07030791429495757</v>
+        <v>0.05086538658210207</v>
       </c>
     </row>
   </sheetData>
